--- a/schemas/norm.xlsx
+++ b/schemas/norm.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Широта</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Consumer1</t>
-  </si>
-  <si>
-    <t>Consumer2</t>
   </si>
   <si>
     <t>Начало</t>
@@ -783,7 +780,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -833,29 +830,6 @@
       </c>
       <c r="G2">
         <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>55.05043420792489</v>
-      </c>
-      <c r="C3">
-        <v>82.96462201087593</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -876,57 +850,57 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -968,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -979,7 +953,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1021,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1032,7 +1006,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1074,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="O4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1085,7 +1059,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1127,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5">
         <v>0</v>
